--- a/ExcelFiles/Count_Insulin.xlsx
+++ b/ExcelFiles/Count_Insulin.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hihum\Dropbox\zCodeLinuxTorikumi\zRinshoExcels\Count_Insulin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86F67CF8-255C-4230-8F76-DBE6B0CDDA2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1000A67B-90BE-44D6-972B-36AF69DC2673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -199,9 +199,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>日後</t>
-  </si>
-  <si>
     <t>(週間後 or 日後？)です。</t>
     <rPh sb="1" eb="3">
       <t>シュウカン</t>
@@ -273,6 +270,9 @@
       <t>ゴ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>週間後</t>
   </si>
 </sst>
 </file>
@@ -306,7 +306,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -316,6 +316,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -393,7 +399,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
@@ -406,10 +412,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -422,14 +437,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -715,7 +722,7 @@
   <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -728,16 +735,16 @@
       <c r="A1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="D1" s="10" t="s">
+      <c r="B1" s="9"/>
+      <c r="D1" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="10"/>
-      <c r="F1" s="12">
+      <c r="E1" s="13"/>
+      <c r="F1" s="15">
         <f ca="1">TODAY()</f>
-        <v>45022</v>
-      </c>
-      <c r="G1" s="13"/>
+        <v>45050</v>
+      </c>
+      <c r="G1" s="16"/>
       <c r="H1" t="s">
         <v>17</v>
       </c>
@@ -746,38 +753,38 @@
       <c r="A2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="D2" s="10" t="s">
+      <c r="B2" s="8"/>
+      <c r="D2" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="15"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="18"/>
       <c r="H2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" t="s">
         <v>20</v>
-      </c>
-      <c r="I2" t="s">
-        <v>21</v>
       </c>
       <c r="L2" s="4">
         <f>IF(H2="週間後",F2*7,IF(H2="日後",F2))</f>
         <v>0</v>
       </c>
       <c r="M2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="B3" s="3"/>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="12">
+      <c r="E3" s="13"/>
+      <c r="F3" s="15">
         <f ca="1">L2+F1</f>
-        <v>45022</v>
-      </c>
-      <c r="G3" s="13"/>
+        <v>45050</v>
+      </c>
+      <c r="G3" s="16"/>
       <c r="H3" t="s">
         <v>17</v>
       </c>
@@ -807,16 +814,16 @@
       <c r="E7" s="1"/>
       <c r="G7" s="1"/>
       <c r="I7" s="1"/>
-      <c r="K7" s="6">
+      <c r="K7" s="11">
         <f>(SUM(C7+E7+G7+I7)+COUNT(C7:I7)*2)*$L$2/300</f>
         <v>0</v>
       </c>
-      <c r="L7" s="7" t="s">
-        <v>22</v>
+      <c r="L7" s="6" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="19.5" thickBot="1">
-      <c r="K8" s="8"/>
+      <c r="K8" s="7"/>
     </row>
     <row r="9" spans="1:13" ht="19.5" thickBot="1">
       <c r="B9" s="5" t="s">
@@ -826,16 +833,16 @@
       <c r="E9" s="1"/>
       <c r="G9" s="1"/>
       <c r="I9" s="1"/>
-      <c r="K9" s="6">
-        <f t="shared" ref="K9:K16" si="0">(SUM(C9+E9+G9+I9)+COUNT(C9:I9)*2)*$L$2/300</f>
-        <v>0</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>22</v>
+      <c r="K9" s="11">
+        <f t="shared" ref="K9:K15" si="0">(SUM(C9+E9+G9+I9)+COUNT(C9:I9)*2)*$L$2/300</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="19.5" thickBot="1">
-      <c r="K10" s="8"/>
+      <c r="K10" s="7"/>
     </row>
     <row r="11" spans="1:13" ht="19.5" thickBot="1">
       <c r="B11" s="5" t="s">
@@ -845,16 +852,16 @@
       <c r="E11" s="1"/>
       <c r="G11" s="1"/>
       <c r="I11" s="1"/>
-      <c r="K11" s="6">
+      <c r="K11" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L11" s="7" t="s">
-        <v>22</v>
+      <c r="L11" s="6" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="19.5" thickBot="1">
-      <c r="K12" s="8"/>
+      <c r="K12" s="7"/>
     </row>
     <row r="13" spans="1:13" ht="19.5" thickBot="1">
       <c r="B13" s="5" t="s">
@@ -864,16 +871,16 @@
       <c r="E13" s="1"/>
       <c r="G13" s="1"/>
       <c r="I13" s="1"/>
-      <c r="K13" s="6">
+      <c r="K13" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L13" s="7" t="s">
-        <v>22</v>
+      <c r="L13" s="6" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="19.5" thickBot="1">
-      <c r="K14" s="8"/>
+      <c r="K14" s="7"/>
     </row>
     <row r="15" spans="1:13" ht="19.5" thickBot="1">
       <c r="B15" s="5" t="s">
@@ -883,12 +890,12 @@
       <c r="E15" s="1"/>
       <c r="G15" s="1"/>
       <c r="I15" s="1"/>
-      <c r="K15" s="6">
+      <c r="K15" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L15" s="7" t="s">
-        <v>22</v>
+      <c r="L15" s="6" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="19.5" thickBot="1">
@@ -899,74 +906,76 @@
       <c r="E16" s="1"/>
       <c r="G16" s="1"/>
       <c r="I16" s="1"/>
-      <c r="K16" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>22</v>
+      <c r="K16" s="11">
+        <f>(SUM(C16+E16+G16+I16)+COUNT(C16:I16)*3)*$L$2/300</f>
+        <v>0</v>
+      </c>
+      <c r="L16" s="6" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="2:12">
       <c r="K18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" ht="19.5" thickBot="1">
+      <c r="K19" s="12">
+        <f>COUNT(C7:I16)</f>
+        <v>0</v>
+      </c>
+      <c r="L19" s="6" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12" ht="19.5" thickBot="1">
-      <c r="K19" s="9">
-        <f>COUNT(C7:I16)</f>
-        <v>0</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="20" spans="2:12" ht="19.5" thickBot="1">
       <c r="B20" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="10">
         <f>K19*L2</f>
         <v>0</v>
       </c>
-      <c r="D20" s="7" t="s">
-        <v>22</v>
+      <c r="D20" s="6" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="2:12" ht="19.5" thickBot="1">
       <c r="B21" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="10">
         <f>G21*L2</f>
         <v>0</v>
       </c>
-      <c r="D21" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F21" s="11"/>
-      <c r="G21" s="1"/>
+      <c r="D21" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F21" s="14"/>
+      <c r="G21" s="1">
+        <v>1</v>
+      </c>
       <c r="H21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="2:12" ht="19.5" thickBot="1">
       <c r="B22" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22" s="10">
         <f>C20+C21</f>
         <v>0</v>
       </c>
-      <c r="D22" s="7" t="s">
-        <v>26</v>
+      <c r="D22" s="6" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection sheet="1" selectLockedCells="1"/>
   <mergeCells count="7">
     <mergeCell ref="E21:F21"/>
     <mergeCell ref="D1:E1"/>

--- a/ExcelFiles/Count_Insulin.xlsx
+++ b/ExcelFiles/Count_Insulin.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hihum\Dropbox\zCodeLinuxTorikumi\zRinshoExcels\Count_Insulin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1000A67B-90BE-44D6-972B-36AF69DC2673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBD46B22-28DC-41B1-93A4-92BD0E0599C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -722,7 +722,7 @@
   <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>

--- a/ExcelFiles/Count_Insulin.xlsx
+++ b/ExcelFiles/Count_Insulin.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hihum\Dropbox\zCodeLinuxTorikumi\zRinshoExcels\Count_Insulin\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hihum\Dropbox\AllExcels\zRinshoExcels\Count_Insulin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBD46B22-28DC-41B1-93A4-92BD0E0599C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C7C5ADB-B832-4CED-B961-1930F3EC3AA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -722,7 +722,7 @@
   <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -742,7 +742,7 @@
       <c r="E1" s="13"/>
       <c r="F1" s="15">
         <f ca="1">TODAY()</f>
-        <v>45050</v>
+        <v>45088</v>
       </c>
       <c r="G1" s="16"/>
       <c r="H1" t="s">
@@ -782,7 +782,7 @@
       <c r="E3" s="13"/>
       <c r="F3" s="15">
         <f ca="1">L2+F1</f>
-        <v>45050</v>
+        <v>45088</v>
       </c>
       <c r="G3" s="16"/>
       <c r="H3" t="s">
@@ -907,7 +907,7 @@
       <c r="G16" s="1"/>
       <c r="I16" s="1"/>
       <c r="K16" s="11">
-        <f>(SUM(C16+E16+G16+I16)+COUNT(C16:I16)*3)*$L$2/300</f>
+        <f>(SUM(C16+E16+G16+I16)+COUNT(C16:I16)*3)*$L$2/450</f>
         <v>0</v>
       </c>
       <c r="L16" s="6" t="s">
@@ -955,9 +955,7 @@
         <v>24</v>
       </c>
       <c r="F21" s="14"/>
-      <c r="G21" s="1">
-        <v>1</v>
-      </c>
+      <c r="G21" s="1"/>
       <c r="H21" t="s">
         <v>23</v>
       </c>
